--- a/report_template/effective_mulitiple.xlsx
+++ b/report_template/effective_mulitiple.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
     <t>空品數據有效率年報表(多站單測項)</t>
   </si>
   <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
-  <si>
     <t>測項名稱  ：TSP</t>
   </si>
   <si>
@@ -79,13 +76,17 @@
   </si>
   <si>
     <t>最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="##0.00"/>
   </numFmts>
@@ -273,6 +274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,7 +522,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -515,7 +550,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -533,7 +568,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -551,7 +586,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -569,7 +604,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -587,7 +622,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -605,7 +640,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -623,7 +658,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -641,7 +676,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -659,7 +694,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -677,7 +712,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -695,7 +730,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -713,7 +748,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -731,7 +766,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -749,7 +784,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -767,7 +802,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -785,7 +820,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -803,7 +838,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -821,7 +856,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>

--- a/report_template/effective_mulitiple.xlsx
+++ b/report_template/effective_mulitiple.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>空品數據有效率年報表(多站單測項)</t>
   </si>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>最大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,9 +545,7 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
